--- a/ProyectoFinal/actividades.xlsx
+++ b/ProyectoFinal/actividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiscarranza/Documents/CompuGrafica/proyectoFinal/ProyectoFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E5119A6-3876-724A-932E-A730C21A4EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AC49A-6B6C-7E4B-8404-23D147FB5B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" xr2:uid="{F1F74688-E472-0148-A531-72C54238E9B2}"/>
+    <workbookView xWindow="8360" yWindow="500" windowWidth="17240" windowHeight="14220" xr2:uid="{F1F74688-E472-0148-A531-72C54238E9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Nombre actividad</t>
   </si>
@@ -89,6 +89,15 @@
   <si>
     <t>Fn Proyecto</t>
   </si>
+  <si>
+    <t>Generación del video</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +122,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF3A00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,12 +170,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCF3A00"/>
+      <color rgb="FFD42500"/>
+      <color rgb="FFFF392A"/>
+      <color rgb="FFFF3916"/>
+      <color rgb="FFFF5314"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,7 +244,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$22:$A$35</c:f>
+              <c:f>Hoja1!$A$21:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -253,7 +294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$22:$B$35</c:f>
+              <c:f>Hoja1!$B$21:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="14"/>
@@ -267,7 +308,7 @@
                   <c:v>44373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44371</c:v>
+                  <c:v>44372</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44376</c:v>
@@ -326,7 +367,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$22:$A$35</c:f>
+              <c:f>Hoja1!$A$21:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -376,7 +417,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$22:$C$35</c:f>
+              <c:f>Hoja1!$C$21:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -605,7 +646,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Diagrama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> de Gantt</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Planificación de actividades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación de costos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentación Propuesta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Preparación de Software</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Búsqueda de recursos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba de recursos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generación del entorno</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generación de los objetos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Programación de animaciones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Asignación de eventos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generación de la documentación</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generación del video</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Entrega proyecto final</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44370</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A89E-754C-AF78-6D3AE346F6E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Planificación de actividades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estimación de costos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Presentación Propuesta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Preparación de Software</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Búsqueda de recursos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba de recursos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generación del entorno</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generación de los objetos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Programación de animaciones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Asignación de eventos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generación de la documentación</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generación del video</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Entrega proyecto final</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A89E-754C-AF78-6D3AE346F6E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1520425600"/>
+        <c:axId val="1520430960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1520425600"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520430960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1520430960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44418"/>
+          <c:min val="44369"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520425600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1150,19 +1726,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>202671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>614065</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1183,6 +2264,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>184728</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF402BF-A4D7-F644-A49B-E7EDC18A9270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1488,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8695AB98-C9CA-4841-A606-91BA0C3961E1}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1502,384 +2619,399 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>44385</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" s="4">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4">
+        <v>44370</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="9">
+        <f>B2</f>
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44371</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>44372</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="9">
+        <f>D14</f>
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>44371</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B5" s="4">
+        <v>44370</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="4">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>44374</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44373</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44380</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44387</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="4">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44388</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44390</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44395</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44404</v>
+      </c>
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>44376</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44382</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44389</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44390</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44392</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44397</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44399</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
       <c r="D12" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>44403</v>
+        <v>44415</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
+        <v>44417</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44371</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44371</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44373</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44372</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44376</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44382</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="8">
         <v>44389</v>
       </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44418</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
-        <v>44418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="D27" s="8">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44390</v>
+      </c>
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
-        <v>44371</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="D28" s="8">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44392</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44397</v>
+      </c>
+      <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
-        <v>44372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44371</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44373</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44371</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44376</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>44380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44382</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44389</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44390</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44392</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2">
-        <v>44396</v>
+      <c r="D30" s="8">
+        <v>44398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2">
-        <v>44398</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <v>44401</v>
@@ -1887,61 +3019,47 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>44401</v>
+        <v>44404</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
-        <v>44403</v>
+        <v>44406</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44406</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
         <v>44407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6">
+        <f>B21</f>
+        <v>44371</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="6">
-        <f>B22</f>
-        <v>44371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="6">
-        <f>D35</f>
+        <f>D34</f>
         <v>44407</v>
       </c>
     </row>
